--- a/Code/public/Venator_Consuting_Exported_file_payment_analysis_1_1.xlsx
+++ b/Code/public/Venator_Consuting_Exported_file_payment_analysis_1_1.xlsx
@@ -456,10 +456,10 @@
         <v>269.033,44</v>
       </c>
       <c r="L2" t="str">
-        <v>1.5.2019</v>
+        <v>01.05.2019</v>
       </c>
       <c r="P2" t="str">
-        <v>30.9.2019</v>
+        <v>30.09.2019</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -476,10 +476,10 @@
         <v>21.162,84</v>
       </c>
       <c r="L3" t="str">
-        <v>7.5.2019</v>
+        <v>07.05.2019</v>
       </c>
       <c r="P3" t="str">
-        <v>30.9.2019</v>
+        <v>30.09.2019</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -496,10 +496,10 @@
         <v>-21.162,84</v>
       </c>
       <c r="L4" t="str">
-        <v>7.5.2019</v>
+        <v>07.05.2019</v>
       </c>
       <c r="P4" t="str">
-        <v>30.9.2019</v>
+        <v>30.09.2019</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -516,10 +516,10 @@
         <v>21.162,00</v>
       </c>
       <c r="L5" t="str">
-        <v>23.5.2019</v>
+        <v>23.05.2019</v>
       </c>
       <c r="P5" t="str">
-        <v>30.9.2019</v>
+        <v>30.09.2019</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -536,10 +536,10 @@
         <v>14.831,00</v>
       </c>
       <c r="L6" t="str">
-        <v>24.7.2019</v>
+        <v>24.07.2019</v>
       </c>
       <c r="P6" t="str">
-        <v>30.9.2019</v>
+        <v>30.09.2019</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
@@ -556,10 +556,10 @@
         <v>-120.608,63</v>
       </c>
       <c r="L7" t="str">
-        <v>30.9.2019</v>
+        <v>30.09.2019</v>
       </c>
       <c r="P7" t="str">
-        <v>30.9.2019</v>
+        <v>30.09.2019</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -576,10 +576,10 @@
         <v>-86.678,72</v>
       </c>
       <c r="L8" t="str">
-        <v>30.9.2019</v>
+        <v>30.09.2019</v>
       </c>
       <c r="P8" t="str">
-        <v>30.9.2019</v>
+        <v>30.09.2019</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
@@ -596,10 +596,10 @@
         <v>1.950,00</v>
       </c>
       <c r="L9" t="str">
-        <v>1.5.2019</v>
+        <v>01.05.2019</v>
       </c>
       <c r="P9" t="str">
-        <v>30.9.2019</v>
+        <v>30.09.2019</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -616,10 +616,10 @@
         <v>6.831,17</v>
       </c>
       <c r="L10" t="str">
-        <v>1.5.2019</v>
+        <v>01.05.2019</v>
       </c>
       <c r="P10" t="str">
-        <v>30.9.2019</v>
+        <v>30.09.2019</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -636,10 +636,10 @@
         <v>-319,79</v>
       </c>
       <c r="L11" t="str">
-        <v>30.9.2019</v>
+        <v>30.09.2019</v>
       </c>
       <c r="P11" t="str">
-        <v>30.9.2019</v>
+        <v>30.09.2019</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
@@ -656,10 +656,10 @@
         <v>0,50</v>
       </c>
       <c r="L12" t="str">
-        <v>1.5.2019</v>
+        <v>01.05.2019</v>
       </c>
       <c r="P12" t="str">
-        <v>30.9.2019</v>
+        <v>30.09.2019</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
@@ -676,10 +676,10 @@
         <v>0,50</v>
       </c>
       <c r="L13" t="str">
-        <v>1.5.2019</v>
+        <v>01.05.2019</v>
       </c>
       <c r="P13" t="str">
-        <v>30.9.2019</v>
+        <v>30.09.2019</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
@@ -702,10 +702,10 @@
         <v>194.117,68</v>
       </c>
       <c r="L14" t="str">
-        <v>1.5.2019</v>
+        <v>01.05.2019</v>
       </c>
       <c r="P14" t="str">
-        <v>30.9.2019</v>
+        <v>30.09.2019</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -722,10 +722,10 @@
         <v>2.183,18</v>
       </c>
       <c r="L15" t="str">
-        <v>9.5.2019</v>
+        <v>09.05.2019</v>
       </c>
       <c r="P15" t="str">
-        <v>30.9.2019</v>
+        <v>30.09.2019</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
@@ -742,10 +742,10 @@
         <v>-8.040,82</v>
       </c>
       <c r="L16" t="str">
-        <v>30.9.2019</v>
+        <v>30.09.2019</v>
       </c>
       <c r="P16" t="str">
-        <v>30.9.2019</v>
+        <v>30.09.2019</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
@@ -762,10 +762,10 @@
         <v>8.448,34</v>
       </c>
       <c r="L17" t="str">
-        <v>1.5.2019</v>
+        <v>01.05.2019</v>
       </c>
       <c r="P17" t="str">
-        <v>30.9.2019</v>
+        <v>30.09.2019</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
@@ -782,10 +782,10 @@
         <v>-203,33</v>
       </c>
       <c r="L18" t="str">
-        <v>30.9.2019</v>
+        <v>30.09.2019</v>
       </c>
       <c r="P18" t="str">
-        <v>30.9.2019</v>
+        <v>30.09.2019</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
@@ -802,10 +802,10 @@
         <v>0,50</v>
       </c>
       <c r="L19" t="str">
-        <v>1.5.2019</v>
+        <v>01.05.2019</v>
       </c>
       <c r="P19" t="str">
-        <v>30.9.2019</v>
+        <v>30.09.2019</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
@@ -822,10 +822,10 @@
         <v>3,50</v>
       </c>
       <c r="L20" t="str">
-        <v>1.5.2019</v>
+        <v>01.05.2019</v>
       </c>
       <c r="P20" t="str">
-        <v>30.9.2019</v>
+        <v>30.09.2019</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
@@ -842,10 +842,10 @@
         <v>62.313,01</v>
       </c>
       <c r="L21" t="str">
-        <v>1.5.2019</v>
+        <v>01.05.2019</v>
       </c>
       <c r="P21" t="str">
-        <v>30.9.2019</v>
+        <v>30.09.2019</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
@@ -862,10 +862,10 @@
         <v>1.279,81</v>
       </c>
       <c r="L22" t="str">
-        <v>13.6.2019</v>
+        <v>13.06.2019</v>
       </c>
       <c r="P22" t="str">
-        <v>30.9.2019</v>
+        <v>30.09.2019</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
@@ -882,7 +882,7 @@
         <v>-5.314,24</v>
       </c>
       <c r="L23" t="str">
-        <v>30.9.2019</v>
+        <v>30.09.2019</v>
       </c>
       <c r="P23" t="str">
         <v>30.12.2019</v>
@@ -902,7 +902,7 @@
         <v>7.995,53</v>
       </c>
       <c r="L24" t="str">
-        <v>1.5.2019</v>
+        <v>01.05.2019</v>
       </c>
       <c r="P24" t="str">
         <v>30.12.2019</v>
@@ -922,7 +922,7 @@
         <v>-1.586,90</v>
       </c>
       <c r="L25" t="str">
-        <v>30.9.2019</v>
+        <v>30.09.2019</v>
       </c>
       <c r="P25" t="str">
         <v>30.12.2019</v>
@@ -942,7 +942,7 @@
         <v>3.986,67</v>
       </c>
       <c r="L26" t="str">
-        <v>1.5.2019</v>
+        <v>01.05.2019</v>
       </c>
       <c r="P26" t="str">
         <v>30.12.2019</v>
@@ -962,7 +962,7 @@
         <v>-229,79</v>
       </c>
       <c r="L27" t="str">
-        <v>30.9.2019</v>
+        <v>30.09.2019</v>
       </c>
       <c r="P27" t="str">
         <v>30.12.2019</v>
@@ -982,7 +982,7 @@
         <v>19.885,02</v>
       </c>
       <c r="L28" t="str">
-        <v>1.5.2019</v>
+        <v>01.05.2019</v>
       </c>
       <c r="P28" t="str">
         <v>30.12.2019</v>
@@ -1002,7 +1002,7 @@
         <v>1.338,62</v>
       </c>
       <c r="L29" t="str">
-        <v>13.6.2019</v>
+        <v>13.06.2019</v>
       </c>
       <c r="P29" t="str">
         <v>30.12.2019</v>
@@ -1022,7 +1022,7 @@
         <v>-1.338,62</v>
       </c>
       <c r="L30" t="str">
-        <v>13.6.2019</v>
+        <v>13.06.2019</v>
       </c>
       <c r="P30" t="str">
         <v>30.12.2019</v>
@@ -1042,7 +1042,7 @@
         <v>-2.944,99</v>
       </c>
       <c r="L31" t="str">
-        <v>30.9.2019</v>
+        <v>30.09.2019</v>
       </c>
       <c r="P31" t="str">
         <v>30.12.2019</v>
@@ -1062,7 +1062,7 @@
         <v>341,25</v>
       </c>
       <c r="L32" t="str">
-        <v>1.5.2019</v>
+        <v>01.05.2019</v>
       </c>
       <c r="P32" t="str">
         <v>30.12.2019</v>
@@ -1082,7 +1082,7 @@
         <v>-339,25</v>
       </c>
       <c r="L33" t="str">
-        <v>30.9.2019</v>
+        <v>30.09.2019</v>
       </c>
       <c r="P33" t="str">
         <v>30.12.2019</v>
@@ -1102,7 +1102,7 @@
         <v>0,50</v>
       </c>
       <c r="L34" t="str">
-        <v>1.5.2019</v>
+        <v>01.05.2019</v>
       </c>
       <c r="P34" t="str">
         <v>30.12.2019</v>
@@ -1122,7 +1122,7 @@
         <v>0,50</v>
       </c>
       <c r="L35" t="str">
-        <v>1.5.2019</v>
+        <v>01.05.2019</v>
       </c>
       <c r="P35" t="str">
         <v>30.12.2019</v>
@@ -1142,7 +1142,7 @@
         <v>247,90</v>
       </c>
       <c r="L36" t="str">
-        <v>9.5.2019</v>
+        <v>09.05.2019</v>
       </c>
       <c r="P36" t="str">
         <v>30.12.2019</v>
@@ -1162,7 +1162,7 @@
         <v>247,90</v>
       </c>
       <c r="L37" t="str">
-        <v>9.5.2019</v>
+        <v>09.05.2019</v>
       </c>
       <c r="P37" t="str">
         <v>30.12.2019</v>
@@ -1182,7 +1182,7 @@
         <v>301,28</v>
       </c>
       <c r="L38" t="str">
-        <v>9.5.2019</v>
+        <v>09.05.2019</v>
       </c>
       <c r="P38" t="str">
         <v>30.12.2019</v>
@@ -1202,7 +1202,7 @@
         <v>428,84</v>
       </c>
       <c r="L39" t="str">
-        <v>9.5.2019</v>
+        <v>09.05.2019</v>
       </c>
       <c r="P39" t="str">
         <v>30.12.2019</v>
@@ -1222,7 +1222,7 @@
         <v>324,25</v>
       </c>
       <c r="L40" t="str">
-        <v>15.5.2019</v>
+        <v>15.05.2019</v>
       </c>
       <c r="P40" t="str">
         <v>30.12.2019</v>
@@ -1242,7 +1242,7 @@
         <v>591,75</v>
       </c>
       <c r="L41" t="str">
-        <v>15.5.2019</v>
+        <v>15.05.2019</v>
       </c>
       <c r="P41" t="str">
         <v>30.12.2019</v>
@@ -1262,7 +1262,7 @@
         <v>672,16</v>
       </c>
       <c r="L42" t="str">
-        <v>15.5.2019</v>
+        <v>15.05.2019</v>
       </c>
       <c r="P42" t="str">
         <v>30.12.2019</v>
@@ -1282,7 +1282,7 @@
         <v>128,05</v>
       </c>
       <c r="L43" t="str">
-        <v>25.9.2019</v>
+        <v>25.09.2019</v>
       </c>
       <c r="P43" t="str">
         <v>30.12.2019</v>
@@ -1302,7 +1302,7 @@
         <v>-2.942,13</v>
       </c>
       <c r="L44" t="str">
-        <v>30.9.2019</v>
+        <v>30.09.2019</v>
       </c>
       <c r="P44" t="str">
         <v>30.12.2019</v>
@@ -1322,7 +1322,7 @@
         <v>23.292,74</v>
       </c>
       <c r="L45" t="str">
-        <v>1.5.2019</v>
+        <v>01.05.2019</v>
       </c>
       <c r="P45" t="str">
         <v>30.12.2019</v>
@@ -1342,7 +1342,7 @@
         <v>-11.589,76</v>
       </c>
       <c r="L46" t="str">
-        <v>30.9.2019</v>
+        <v>30.09.2019</v>
       </c>
       <c r="P46" t="str">
         <v>30.12.2019</v>
@@ -1362,7 +1362,7 @@
         <v>772,39</v>
       </c>
       <c r="L47" t="str">
-        <v>1.5.2019</v>
+        <v>01.05.2019</v>
       </c>
       <c r="P47" t="str">
         <v>30.12.2019</v>
@@ -1382,7 +1382,7 @@
         <v>-452,94</v>
       </c>
       <c r="L48" t="str">
-        <v>30.9.2019</v>
+        <v>30.09.2019</v>
       </c>
       <c r="P48" t="str">
         <v>30.12.2019</v>
@@ -1402,7 +1402,7 @@
         <v>260,00</v>
       </c>
       <c r="L49" t="str">
-        <v>1.5.2019</v>
+        <v>01.05.2019</v>
       </c>
       <c r="P49" t="str">
         <v>30.12.2019</v>
@@ -1422,7 +1422,7 @@
         <v>77.152,00</v>
       </c>
       <c r="L50" t="str">
-        <v>1.5.2019</v>
+        <v>01.05.2019</v>
       </c>
       <c r="P50" t="str">
         <v>30.12.2019</v>
@@ -1442,7 +1442,7 @@
         <v>-1.407,00</v>
       </c>
       <c r="L51" t="str">
-        <v>8.5.2019</v>
+        <v>08.05.2019</v>
       </c>
       <c r="P51" t="str">
         <v>30.12.2019</v>
@@ -1462,7 +1462,7 @@
         <v>-1.411,00</v>
       </c>
       <c r="L52" t="str">
-        <v>7.6.2019</v>
+        <v>07.06.2019</v>
       </c>
       <c r="P52" t="str">
         <v>30.12.2019</v>
@@ -1482,7 +1482,7 @@
         <v>-1.507,00</v>
       </c>
       <c r="L53" t="str">
-        <v>8.7.2019</v>
+        <v>08.07.2019</v>
       </c>
       <c r="P53" t="str">
         <v>30.12.2019</v>
@@ -1502,7 +1502,7 @@
         <v>-1.507,00</v>
       </c>
       <c r="L54" t="str">
-        <v>10.7.2019</v>
+        <v>10.07.2019</v>
       </c>
       <c r="P54" t="str">
         <v>30.12.2019</v>
@@ -1522,7 +1522,7 @@
         <v>-1.511,00</v>
       </c>
       <c r="L55" t="str">
-        <v>8.8.2019</v>
+        <v>08.08.2019</v>
       </c>
       <c r="P55" t="str">
         <v>30.12.2019</v>
@@ -1542,7 +1542,7 @@
         <v>-1.511,00</v>
       </c>
       <c r="L56" t="str">
-        <v>12.8.2019</v>
+        <v>12.08.2019</v>
       </c>
       <c r="P56" t="str">
         <v>30.12.2019</v>
@@ -1562,7 +1562,7 @@
         <v>-1.514,50</v>
       </c>
       <c r="L57" t="str">
-        <v>6.9.2019</v>
+        <v>06.09.2019</v>
       </c>
       <c r="P57" t="str">
         <v>30.12.2019</v>
@@ -1582,7 +1582,7 @@
         <v>-1.514,50</v>
       </c>
       <c r="L58" t="str">
-        <v>10.9.2019</v>
+        <v>10.09.2019</v>
       </c>
       <c r="P58" t="str">
         <v>30.12.2019</v>
@@ -1602,7 +1602,7 @@
         <v>-1.518,50</v>
       </c>
       <c r="L59" t="str">
-        <v>8.10.2019</v>
+        <v>08.10.2019</v>
       </c>
       <c r="P59" t="str">
         <v>30.12.2019</v>
@@ -1622,7 +1622,7 @@
         <v>-1.518,50</v>
       </c>
       <c r="L60" t="str">
-        <v>8.10.2019</v>
+        <v>08.10.2019</v>
       </c>
       <c r="P60" t="str">
         <v>30.12.2019</v>
@@ -1642,7 +1642,7 @@
         <v>-1.522,00</v>
       </c>
       <c r="L61" t="str">
-        <v>8.11.2019</v>
+        <v>08.11.2019</v>
       </c>
       <c r="P61" t="str">
         <v>30.12.2019</v>
@@ -1682,7 +1682,7 @@
         <v>-1.526,00</v>
       </c>
       <c r="L63" t="str">
-        <v>9.12.2019</v>
+        <v>09.12.2019</v>
       </c>
       <c r="P63" t="str">
         <v>30.12.2019</v>
@@ -1722,7 +1722,7 @@
         <v>-4.300,00</v>
       </c>
       <c r="L65" t="str">
-        <v>1.5.2019</v>
+        <v>01.05.2019</v>
       </c>
       <c r="P65" t="str">
         <v>30.12.2019</v>
@@ -1742,7 +1742,7 @@
         <v>-20.000,00</v>
       </c>
       <c r="L66" t="str">
-        <v>1.5.2019</v>
+        <v>01.05.2019</v>
       </c>
       <c r="P66" t="str">
         <v>30.12.2019</v>
@@ -1762,7 +1762,7 @@
         <v>-13.800,00</v>
       </c>
       <c r="L67" t="str">
-        <v>31.5.2019</v>
+        <v>31.05.2019</v>
       </c>
       <c r="P67" t="str">
         <v>30.12.2019</v>
@@ -1782,7 +1782,7 @@
         <v>-13.800,00</v>
       </c>
       <c r="L68" t="str">
-        <v>30.6.2019</v>
+        <v>30.06.2019</v>
       </c>
       <c r="P68" t="str">
         <v>30.12.2019</v>
@@ -1802,7 +1802,7 @@
         <v>20.000,00</v>
       </c>
       <c r="L69" t="str">
-        <v>30.9.2019</v>
+        <v>30.09.2019</v>
       </c>
       <c r="P69" t="str">
         <v>30.12.2019</v>
@@ -1822,7 +1822,7 @@
         <v>4.300,00</v>
       </c>
       <c r="L70" t="str">
-        <v>30.9.2019</v>
+        <v>30.09.2019</v>
       </c>
       <c r="P70" t="str">
         <v>30.12.2019</v>
@@ -1842,7 +1842,7 @@
         <v>-4.270,00</v>
       </c>
       <c r="L71" t="str">
-        <v>31.5.2019</v>
+        <v>31.05.2019</v>
       </c>
       <c r="P71" t="str">
         <v>30.12.2019</v>
@@ -1862,7 +1862,7 @@
         <v>-2.000,00</v>
       </c>
       <c r="L72" t="str">
-        <v>31.5.2019</v>
+        <v>31.05.2019</v>
       </c>
       <c r="P72" t="str">
         <v>30.12.2019</v>
@@ -1882,7 +1882,7 @@
         <v>-5.000,00</v>
       </c>
       <c r="L73" t="str">
-        <v>31.5.2019</v>
+        <v>31.05.2019</v>
       </c>
       <c r="P73" t="str">
         <v>30.12.2019</v>
@@ -1902,7 +1902,7 @@
         <v>-7.078,00</v>
       </c>
       <c r="L74" t="str">
-        <v>31.5.2019</v>
+        <v>31.05.2019</v>
       </c>
       <c r="P74" t="str">
         <v>30.12.2019</v>
@@ -1922,7 +1922,7 @@
         <v>-1.251,00</v>
       </c>
       <c r="L75" t="str">
-        <v>31.5.2019</v>
+        <v>31.05.2019</v>
       </c>
       <c r="P75" t="str">
         <v>30.12.2019</v>
@@ -1942,7 +1942,7 @@
         <v>-6.733,00</v>
       </c>
       <c r="L76" t="str">
-        <v>31.5.2019</v>
+        <v>31.05.2019</v>
       </c>
       <c r="P76" t="str">
         <v>30.12.2019</v>
@@ -1962,7 +1962,7 @@
         <v>-292,00</v>
       </c>
       <c r="L77" t="str">
-        <v>31.5.2019</v>
+        <v>31.05.2019</v>
       </c>
       <c r="P77" t="str">
         <v>30.12.2019</v>
@@ -1982,7 +1982,7 @@
         <v>-17.927,00</v>
       </c>
       <c r="L78" t="str">
-        <v>31.5.2019</v>
+        <v>31.05.2019</v>
       </c>
       <c r="P78" t="str">
         <v>30.12.2019</v>
@@ -2002,7 +2002,7 @@
         <v>-805,00</v>
       </c>
       <c r="L79" t="str">
-        <v>31.5.2019</v>
+        <v>31.05.2019</v>
       </c>
       <c r="P79" t="str">
         <v>30.12.2019</v>
@@ -2028,7 +2028,7 @@
         <v>-500,00</v>
       </c>
       <c r="L80" t="str">
-        <v>31.5.2019</v>
+        <v>31.05.2019</v>
       </c>
       <c r="P80" t="str">
         <v>30.12.2019</v>
@@ -2054,7 +2054,7 @@
         <v>-348,00</v>
       </c>
       <c r="L81" t="str">
-        <v>31.5.2019</v>
+        <v>31.05.2019</v>
       </c>
       <c r="P81" t="str">
         <v>30.12.2019</v>
@@ -2074,7 +2074,7 @@
         <v>-215,00</v>
       </c>
       <c r="L82" t="str">
-        <v>31.5.2019</v>
+        <v>31.05.2019</v>
       </c>
       <c r="P82" t="str">
         <v>30.12.2019</v>
@@ -2100,7 +2100,7 @@
         <v>-1.250,00</v>
       </c>
       <c r="L83" t="str">
-        <v>31.5.2019</v>
+        <v>31.05.2019</v>
       </c>
       <c r="P83" t="str">
         <v>30.12.2019</v>
@@ -2120,7 +2120,7 @@
         <v>-667,00</v>
       </c>
       <c r="L84" t="str">
-        <v>31.5.2019</v>
+        <v>31.05.2019</v>
       </c>
       <c r="P84" t="str">
         <v>30.12.2019</v>
@@ -2140,7 +2140,7 @@
         <v>-4.850,00</v>
       </c>
       <c r="L85" t="str">
-        <v>31.5.2019</v>
+        <v>31.05.2019</v>
       </c>
       <c r="P85" t="str">
         <v>30.12.2019</v>
@@ -2160,7 +2160,7 @@
         <v>-6.202,00</v>
       </c>
       <c r="L86" t="str">
-        <v>31.5.2019</v>
+        <v>31.05.2019</v>
       </c>
       <c r="P86" t="str">
         <v>30.12.2019</v>
@@ -2180,7 +2180,7 @@
         <v>-6.236,00</v>
       </c>
       <c r="L87" t="str">
-        <v>31.5.2019</v>
+        <v>31.05.2019</v>
       </c>
       <c r="P87" t="str">
         <v>30.12.2019</v>
@@ -2200,7 +2200,7 @@
         <v>-721,00</v>
       </c>
       <c r="L88" t="str">
-        <v>31.5.2019</v>
+        <v>31.05.2019</v>
       </c>
       <c r="P88" t="str">
         <v>30.12.2019</v>
@@ -2220,7 +2220,7 @@
         <v>-40,00</v>
       </c>
       <c r="L89" t="str">
-        <v>31.5.2019</v>
+        <v>31.05.2019</v>
       </c>
       <c r="P89" t="str">
         <v>30.12.2019</v>
@@ -2240,7 +2240,7 @@
         <v>-40,00</v>
       </c>
       <c r="L90" t="str">
-        <v>31.5.2019</v>
+        <v>31.05.2019</v>
       </c>
       <c r="P90" t="str">
         <v>30.12.2019</v>
@@ -2260,7 +2260,7 @@
         <v>-1.702,00</v>
       </c>
       <c r="L91" t="str">
-        <v>31.5.2019</v>
+        <v>31.05.2019</v>
       </c>
       <c r="P91" t="str">
         <v>30.12.2019</v>
@@ -2280,7 +2280,7 @@
         <v>-643,00</v>
       </c>
       <c r="L92" t="str">
-        <v>31.5.2019</v>
+        <v>31.05.2019</v>
       </c>
       <c r="P92" t="str">
         <v>30.12.2019</v>
@@ -2300,7 +2300,7 @@
         <v>-24,00</v>
       </c>
       <c r="L93" t="str">
-        <v>31.5.2019</v>
+        <v>31.05.2019</v>
       </c>
       <c r="P93" t="str">
         <v>30.12.2019</v>
@@ -2320,7 +2320,7 @@
         <v>-73,00</v>
       </c>
       <c r="L94" t="str">
-        <v>31.5.2019</v>
+        <v>31.05.2019</v>
       </c>
       <c r="P94" t="str">
         <v>30.12.2019</v>
@@ -2340,7 +2340,7 @@
         <v>-2.809,00</v>
       </c>
       <c r="L95" t="str">
-        <v>31.5.2019</v>
+        <v>31.05.2019</v>
       </c>
       <c r="P95" t="str">
         <v>30.12.2019</v>
@@ -2360,7 +2360,7 @@
         <v>-1.037,00</v>
       </c>
       <c r="L96" t="str">
-        <v>31.5.2019</v>
+        <v>31.05.2019</v>
       </c>
       <c r="P96" t="str">
         <v>30.12.2019</v>
@@ -2380,7 +2380,7 @@
         <v>-9.890,00</v>
       </c>
       <c r="L97" t="str">
-        <v>31.5.2019</v>
+        <v>31.05.2019</v>
       </c>
       <c r="P97" t="str">
         <v>30.12.2019</v>
@@ -2400,7 +2400,7 @@
         <v>-970,00</v>
       </c>
       <c r="L98" t="str">
-        <v>31.5.2019</v>
+        <v>31.05.2019</v>
       </c>
       <c r="P98" t="str">
         <v>30.12.2019</v>
@@ -2420,7 +2420,7 @@
         <v>-9.000,00</v>
       </c>
       <c r="L99" t="str">
-        <v>31.5.2019</v>
+        <v>31.05.2019</v>
       </c>
       <c r="P99" t="str">
         <v>30.12.2019</v>
@@ -2440,7 +2440,7 @@
         <v>-18.244,00</v>
       </c>
       <c r="L100" t="str">
-        <v>31.5.2019</v>
+        <v>31.05.2019</v>
       </c>
       <c r="P100" t="str">
         <v>30.12.2019</v>
@@ -2460,7 +2460,7 @@
         <v>-2.500,00</v>
       </c>
       <c r="L101" t="str">
-        <v>31.5.2019</v>
+        <v>31.05.2019</v>
       </c>
       <c r="P101" t="str">
         <v>30.12.2019</v>
@@ -2480,7 +2480,7 @@
         <v>-1.700,00</v>
       </c>
       <c r="L102" t="str">
-        <v>31.5.2019</v>
+        <v>31.05.2019</v>
       </c>
       <c r="P102" t="str">
         <v>30.12.2019</v>
@@ -2500,7 +2500,7 @@
         <v>-43,00</v>
       </c>
       <c r="L103" t="str">
-        <v>31.5.2019</v>
+        <v>31.05.2019</v>
       </c>
       <c r="P103" t="str">
         <v>30.12.2019</v>
@@ -2520,7 +2520,7 @@
         <v>-4.430,00</v>
       </c>
       <c r="L104" t="str">
-        <v>31.5.2019</v>
+        <v>31.05.2019</v>
       </c>
       <c r="P104" t="str">
         <v>30.12.2019</v>
@@ -2540,7 +2540,7 @@
         <v>-1.369,00</v>
       </c>
       <c r="L105" t="str">
-        <v>31.5.2019</v>
+        <v>31.05.2019</v>
       </c>
       <c r="P105" t="str">
         <v>30.12.2019</v>
@@ -2560,7 +2560,7 @@
         <v>-458,00</v>
       </c>
       <c r="L106" t="str">
-        <v>31.5.2019</v>
+        <v>31.05.2019</v>
       </c>
       <c r="P106" t="str">
         <v>30.12.2019</v>
@@ -2580,7 +2580,7 @@
         <v>-15.000,00</v>
       </c>
       <c r="L107" t="str">
-        <v>31.5.2019</v>
+        <v>31.05.2019</v>
       </c>
       <c r="P107" t="str">
         <v>30.12.2019</v>
@@ -2600,7 +2600,7 @@
         <v>-15,00</v>
       </c>
       <c r="L108" t="str">
-        <v>31.5.2019</v>
+        <v>31.05.2019</v>
       </c>
       <c r="P108" t="str">
         <v>30.12.2019</v>
@@ -2620,7 +2620,7 @@
         <v>-8.000,00</v>
       </c>
       <c r="L109" t="str">
-        <v>31.5.2019</v>
+        <v>31.05.2019</v>
       </c>
       <c r="P109" t="str">
         <v>30.12.2019</v>
@@ -2640,7 +2640,7 @@
         <v>-11.680,00</v>
       </c>
       <c r="L110" t="str">
-        <v>31.5.2019</v>
+        <v>31.05.2019</v>
       </c>
       <c r="P110" t="str">
         <v>30.12.2019</v>
@@ -2660,7 +2660,7 @@
         <v>-137,00</v>
       </c>
       <c r="L111" t="str">
-        <v>31.5.2019</v>
+        <v>31.05.2019</v>
       </c>
       <c r="P111" t="str">
         <v>30.12.2019</v>
@@ -2680,7 +2680,7 @@
         <v>-10.806,00</v>
       </c>
       <c r="L112" t="str">
-        <v>31.5.2019</v>
+        <v>31.05.2019</v>
       </c>
       <c r="P112" t="str">
         <v>30.12.2019</v>
@@ -2700,7 +2700,7 @@
         <v>-4.993,00</v>
       </c>
       <c r="L113" t="str">
-        <v>31.5.2019</v>
+        <v>31.05.2019</v>
       </c>
       <c r="P113" t="str">
         <v>30.12.2019</v>
@@ -2720,7 +2720,7 @@
         <v>-4.993,00</v>
       </c>
       <c r="L114" t="str">
-        <v>31.5.2019</v>
+        <v>31.05.2019</v>
       </c>
       <c r="P114" t="str">
         <v>30.12.2019</v>
@@ -2740,7 +2740,7 @@
         <v>-20.000,00</v>
       </c>
       <c r="L115" t="str">
-        <v>31.5.2019</v>
+        <v>31.05.2019</v>
       </c>
       <c r="P115" t="str">
         <v>30.12.2019</v>
@@ -2760,7 +2760,7 @@
         <v>-20.000,00</v>
       </c>
       <c r="L116" t="str">
-        <v>31.5.2019</v>
+        <v>31.05.2019</v>
       </c>
       <c r="P116" t="str">
         <v>30.12.2019</v>
@@ -2780,7 +2780,7 @@
         <v>-65,00</v>
       </c>
       <c r="L117" t="str">
-        <v>31.5.2019</v>
+        <v>31.05.2019</v>
       </c>
       <c r="P117" t="str">
         <v>30.12.2019</v>
@@ -2800,7 +2800,7 @@
         <v>-65,00</v>
       </c>
       <c r="L118" t="str">
-        <v>31.5.2019</v>
+        <v>31.05.2019</v>
       </c>
       <c r="P118" t="str">
         <v>30.12.2019</v>
@@ -2820,7 +2820,7 @@
         <v>10.000,00</v>
       </c>
       <c r="L119" t="str">
-        <v>31.5.2019</v>
+        <v>31.05.2019</v>
       </c>
       <c r="P119" t="str">
         <v>30.12.2019</v>
@@ -2840,7 +2840,7 @@
         <v>-5.000,00</v>
       </c>
       <c r="L120" t="str">
-        <v>31.5.2019</v>
+        <v>31.05.2019</v>
       </c>
       <c r="P120" t="str">
         <v>30.12.2019</v>
@@ -2860,7 +2860,7 @@
         <v>-5.413,16</v>
       </c>
       <c r="L121" t="str">
-        <v>31.5.2019</v>
+        <v>31.05.2019</v>
       </c>
       <c r="P121" t="str">
         <v>30.12.2019</v>
@@ -2886,7 +2886,7 @@
         <v>35.000,00</v>
       </c>
       <c r="L122" t="str">
-        <v>31.5.2019</v>
+        <v>31.05.2019</v>
       </c>
       <c r="P122" t="str">
         <v>30.12.2019</v>
@@ -2906,7 +2906,7 @@
         <v>5.000,00</v>
       </c>
       <c r="L123" t="str">
-        <v>31.5.2019</v>
+        <v>31.05.2019</v>
       </c>
       <c r="P123" t="str">
         <v>30.12.2019</v>
@@ -2926,7 +2926,7 @@
         <v>17.500,00</v>
       </c>
       <c r="L124" t="str">
-        <v>31.5.2019</v>
+        <v>31.05.2019</v>
       </c>
       <c r="P124" t="str">
         <v>30.12.2019</v>
@@ -2946,7 +2946,7 @@
         <v>17.500,00</v>
       </c>
       <c r="L125" t="str">
-        <v>31.5.2019</v>
+        <v>31.05.2019</v>
       </c>
       <c r="P125" t="str">
         <v>30.12.2019</v>
@@ -2966,7 +2966,7 @@
         <v>18.971,00</v>
       </c>
       <c r="L126" t="str">
-        <v>31.5.2019</v>
+        <v>31.05.2019</v>
       </c>
       <c r="P126" t="str">
         <v>30.12.2019</v>
@@ -2986,7 +2986,7 @@
         <v>20.000,00</v>
       </c>
       <c r="L127" t="str">
-        <v>31.5.2019</v>
+        <v>31.05.2019</v>
       </c>
       <c r="P127" t="str">
         <v>30.12.2019</v>
@@ -3006,7 +3006,7 @@
         <v>10.000,00</v>
       </c>
       <c r="L128" t="str">
-        <v>31.5.2019</v>
+        <v>31.05.2019</v>
       </c>
       <c r="P128" t="str">
         <v>30.12.2019</v>
@@ -3026,7 +3026,7 @@
         <v>5.413,16</v>
       </c>
       <c r="L129" t="str">
-        <v>1.6.2019</v>
+        <v>01.06.2019</v>
       </c>
       <c r="P129" t="str">
         <v>30.12.2019</v>
@@ -3046,7 +3046,7 @@
         <v>12.643,00</v>
       </c>
       <c r="L130" t="str">
-        <v>1.6.2019</v>
+        <v>01.06.2019</v>
       </c>
       <c r="P130" t="str">
         <v>30.12.2019</v>
@@ -3066,7 +3066,7 @@
         <v>137,00</v>
       </c>
       <c r="L131" t="str">
-        <v>1.6.2019</v>
+        <v>01.06.2019</v>
       </c>
       <c r="P131" t="str">
         <v>30.12.2019</v>
@@ -3086,7 +3086,7 @@
         <v>-18.743,00</v>
       </c>
       <c r="L132" t="str">
-        <v>1.6.2019</v>
+        <v>01.06.2019</v>
       </c>
       <c r="P132" t="str">
         <v>30.12.2019</v>
@@ -3106,7 +3106,7 @@
         <v>19.959,00</v>
       </c>
       <c r="L133" t="str">
-        <v>1.6.2019</v>
+        <v>01.06.2019</v>
       </c>
       <c r="P133" t="str">
         <v>30.12.2019</v>
@@ -3126,7 +3126,7 @@
         <v>1.037,00</v>
       </c>
       <c r="L134" t="str">
-        <v>1.6.2019</v>
+        <v>01.06.2019</v>
       </c>
       <c r="P134" t="str">
         <v>30.12.2019</v>
@@ -3146,7 +3146,7 @@
         <v>1.702,00</v>
       </c>
       <c r="L135" t="str">
-        <v>1.6.2019</v>
+        <v>01.06.2019</v>
       </c>
       <c r="P135" t="str">
         <v>30.12.2019</v>
@@ -3166,7 +3166,7 @@
         <v>643,00</v>
       </c>
       <c r="L136" t="str">
-        <v>1.6.2019</v>
+        <v>01.06.2019</v>
       </c>
       <c r="P136" t="str">
         <v>30.12.2019</v>
@@ -3186,7 +3186,7 @@
         <v>24,00</v>
       </c>
       <c r="L137" t="str">
-        <v>1.6.2019</v>
+        <v>01.06.2019</v>
       </c>
       <c r="P137" t="str">
         <v>30.12.2019</v>
@@ -3206,7 +3206,7 @@
         <v>73,00</v>
       </c>
       <c r="L138" t="str">
-        <v>1.6.2019</v>
+        <v>01.06.2019</v>
       </c>
       <c r="P138" t="str">
         <v>30.12.2019</v>
@@ -3226,7 +3226,7 @@
         <v>2.809,00</v>
       </c>
       <c r="L139" t="str">
-        <v>1.6.2019</v>
+        <v>01.06.2019</v>
       </c>
       <c r="P139" t="str">
         <v>30.12.2019</v>
@@ -3246,7 +3246,7 @@
         <v>2.500,00</v>
       </c>
       <c r="L140" t="str">
-        <v>1.6.2019</v>
+        <v>01.06.2019</v>
       </c>
       <c r="P140" t="str">
         <v>30.12.2019</v>
@@ -3266,7 +3266,7 @@
         <v>2.500,00</v>
       </c>
       <c r="L141" t="str">
-        <v>1.6.2019</v>
+        <v>01.06.2019</v>
       </c>
       <c r="P141" t="str">
         <v>30.12.2019</v>
@@ -3286,7 +3286,7 @@
         <v>15.000,00</v>
       </c>
       <c r="L142" t="str">
-        <v>1.6.2019</v>
+        <v>01.06.2019</v>
       </c>
       <c r="P142" t="str">
         <v>30.12.2019</v>
@@ -3306,7 +3306,7 @@
         <v>-18.971,00</v>
       </c>
       <c r="L143" t="str">
-        <v>1.6.2019</v>
+        <v>01.06.2019</v>
       </c>
       <c r="P143" t="str">
         <v>30.12.2019</v>
@@ -3326,7 +3326,7 @@
         <v>667,00</v>
       </c>
       <c r="L144" t="str">
-        <v>1.6.2019</v>
+        <v>01.06.2019</v>
       </c>
       <c r="P144" t="str">
         <v>30.12.2019</v>
@@ -3346,7 +3346,7 @@
         <v>40,00</v>
       </c>
       <c r="L145" t="str">
-        <v>1.6.2019</v>
+        <v>01.06.2019</v>
       </c>
       <c r="P145" t="str">
         <v>30.12.2019</v>
@@ -3366,7 +3366,7 @@
         <v>4.890,00</v>
       </c>
       <c r="L146" t="str">
-        <v>1.6.2019</v>
+        <v>01.06.2019</v>
       </c>
       <c r="P146" t="str">
         <v>30.12.2019</v>
@@ -3386,7 +3386,7 @@
         <v>6.202,00</v>
       </c>
       <c r="L147" t="str">
-        <v>1.6.2019</v>
+        <v>01.06.2019</v>
       </c>
       <c r="P147" t="str">
         <v>30.12.2019</v>
@@ -3406,7 +3406,7 @@
         <v>6.236,00</v>
       </c>
       <c r="L148" t="str">
-        <v>1.6.2019</v>
+        <v>01.06.2019</v>
       </c>
       <c r="P148" t="str">
         <v>30.12.2019</v>
@@ -3426,7 +3426,7 @@
         <v>721,00</v>
       </c>
       <c r="L149" t="str">
-        <v>1.6.2019</v>
+        <v>01.06.2019</v>
       </c>
       <c r="P149" t="str">
         <v>30.12.2019</v>
@@ -3446,7 +3446,7 @@
         <v>215,00</v>
       </c>
       <c r="L150" t="str">
-        <v>1.6.2019</v>
+        <v>01.06.2019</v>
       </c>
       <c r="P150" t="str">
         <v>30.12.2019</v>
@@ -3466,7 +3466,7 @@
         <v>5.000,00</v>
       </c>
       <c r="L151" t="str">
-        <v>1.6.2019</v>
+        <v>01.06.2019</v>
       </c>
       <c r="P151" t="str">
         <v>30.12.2019</v>
@@ -3486,7 +3486,7 @@
         <v>5.000,00</v>
       </c>
       <c r="L152" t="str">
-        <v>1.6.2019</v>
+        <v>01.06.2019</v>
       </c>
       <c r="P152" t="str">
         <v>30.12.2019</v>
@@ -3506,7 +3506,7 @@
         <v>1.250,00</v>
       </c>
       <c r="L153" t="str">
-        <v>1.6.2019</v>
+        <v>01.06.2019</v>
       </c>
       <c r="P153" t="str">
         <v>30.12.2019</v>
@@ -3526,7 +3526,7 @@
         <v>18.287,00</v>
       </c>
       <c r="L154" t="str">
-        <v>1.6.2019</v>
+        <v>01.06.2019</v>
       </c>
       <c r="P154" t="str">
         <v>30.12.2019</v>
@@ -3546,7 +3546,7 @@
         <v>-6.800,00</v>
       </c>
       <c r="L155" t="str">
-        <v>1.6.2019</v>
+        <v>01.06.2019</v>
       </c>
       <c r="P155" t="str">
         <v>30.12.2019</v>
@@ -3566,7 +3566,7 @@
         <v>15.005,00</v>
       </c>
       <c r="L156" t="str">
-        <v>1.6.2019</v>
+        <v>01.06.2019</v>
       </c>
       <c r="P156" t="str">
         <v>30.12.2019</v>
@@ -3586,7 +3586,7 @@
         <v>2.348,00</v>
       </c>
       <c r="L157" t="str">
-        <v>1.6.2019</v>
+        <v>01.06.2019</v>
       </c>
       <c r="P157" t="str">
         <v>30.12.2019</v>
@@ -3606,7 +3606,7 @@
         <v>8.000,00</v>
       </c>
       <c r="L158" t="str">
-        <v>1.6.2019</v>
+        <v>01.06.2019</v>
       </c>
       <c r="P158" t="str">
         <v>30.12.2019</v>
@@ -3626,7 +3626,7 @@
         <v>65,00</v>
       </c>
       <c r="L159" t="str">
-        <v>1.6.2019</v>
+        <v>01.06.2019</v>
       </c>
       <c r="P159" t="str">
         <v>30.12.2019</v>
@@ -3646,7 +3646,7 @@
         <v>65,00</v>
       </c>
       <c r="L160" t="str">
-        <v>1.6.2019</v>
+        <v>01.06.2019</v>
       </c>
       <c r="P160" t="str">
         <v>30.12.2019</v>
@@ -3666,7 +3666,7 @@
         <v>6.733,00</v>
       </c>
       <c r="L161" t="str">
-        <v>1.6.2019</v>
+        <v>01.06.2019</v>
       </c>
       <c r="P161" t="str">
         <v>30.12.2019</v>
@@ -3686,7 +3686,7 @@
         <v>2.000,00</v>
       </c>
       <c r="L162" t="str">
-        <v>1.6.2019</v>
+        <v>01.06.2019</v>
       </c>
       <c r="P162" t="str">
         <v>30.12.2019</v>
@@ -3706,7 +3706,7 @@
         <v>15,00</v>
       </c>
       <c r="L163" t="str">
-        <v>1.6.2019</v>
+        <v>01.06.2019</v>
       </c>
       <c r="P163" t="str">
         <v>30.12.2019</v>
@@ -3726,7 +3726,7 @@
         <v>348,00</v>
       </c>
       <c r="L164" t="str">
-        <v>1.6.2019</v>
+        <v>01.06.2019</v>
       </c>
       <c r="P164" t="str">
         <v>30.12.2019</v>
@@ -3746,7 +3746,7 @@
         <v>500,00</v>
       </c>
       <c r="L165" t="str">
-        <v>1.6.2019</v>
+        <v>01.06.2019</v>
       </c>
       <c r="P165" t="str">
         <v>30.12.2019</v>
@@ -3766,7 +3766,7 @@
         <v>-10.000,00</v>
       </c>
       <c r="L166" t="str">
-        <v>1.6.2019</v>
+        <v>01.06.2019</v>
       </c>
       <c r="P166" t="str">
         <v>30.12.2019</v>
@@ -3786,7 +3786,7 @@
         <v>-1.830,00</v>
       </c>
       <c r="L167" t="str">
-        <v>30.6.2019</v>
+        <v>30.06.2019</v>
       </c>
       <c r="P167" t="str">
         <v>30.12.2019</v>
@@ -3806,7 +3806,7 @@
         <v>-7.366,59</v>
       </c>
       <c r="L168" t="str">
-        <v>30.6.2019</v>
+        <v>30.06.2019</v>
       </c>
       <c r="P168" t="str">
         <v>30.12.2019</v>
@@ -3826,7 +3826,7 @@
         <v>-2.185,36</v>
       </c>
       <c r="L169" t="str">
-        <v>30.6.2019</v>
+        <v>30.06.2019</v>
       </c>
       <c r="P169" t="str">
         <v>30.12.2019</v>
@@ -3846,7 +3846,7 @@
         <v>-10.000,00</v>
       </c>
       <c r="L170" t="str">
-        <v>30.6.2019</v>
+        <v>30.06.2019</v>
       </c>
       <c r="P170" t="str">
         <v>30.12.2019</v>
@@ -3866,7 +3866,7 @@
         <v>-756,00</v>
       </c>
       <c r="L171" t="str">
-        <v>30.6.2019</v>
+        <v>30.06.2019</v>
       </c>
       <c r="P171" t="str">
         <v>30.12.2019</v>
@@ -3886,7 +3886,7 @@
         <v>-120,00</v>
       </c>
       <c r="L172" t="str">
-        <v>30.6.2019</v>
+        <v>30.06.2019</v>
       </c>
       <c r="P172" t="str">
         <v>30.12.2019</v>
@@ -3906,7 +3906,7 @@
         <v>-200,00</v>
       </c>
       <c r="L173" t="str">
-        <v>30.6.2019</v>
+        <v>30.06.2019</v>
       </c>
       <c r="P173" t="str">
         <v>30.12.2019</v>
@@ -3926,7 +3926,7 @@
         <v>-150,00</v>
       </c>
       <c r="L174" t="str">
-        <v>30.6.2019</v>
+        <v>30.06.2019</v>
       </c>
       <c r="P174" t="str">
         <v>30.12.2019</v>
@@ -3946,7 +3946,7 @@
         <v>-6.000,00</v>
       </c>
       <c r="L175" t="str">
-        <v>30.6.2019</v>
+        <v>30.06.2019</v>
       </c>
       <c r="P175" t="str">
         <v>30.12.2019</v>
@@ -3966,7 +3966,7 @@
         <v>-10.000,00</v>
       </c>
       <c r="L176" t="str">
-        <v>30.6.2019</v>
+        <v>30.06.2019</v>
       </c>
       <c r="P176" t="str">
         <v>30.12.2019</v>
@@ -3986,7 +3986,7 @@
         <v>-20.000,00</v>
       </c>
       <c r="L177" t="str">
-        <v>30.6.2019</v>
+        <v>30.06.2019</v>
       </c>
       <c r="P177" t="str">
         <v>30.12.2019</v>
@@ -4006,7 +4006,7 @@
         <v>-24.474,00</v>
       </c>
       <c r="L178" t="str">
-        <v>30.6.2019</v>
+        <v>30.06.2019</v>
       </c>
       <c r="P178" t="str">
         <v>30.12.2019</v>
@@ -4026,7 +4026,7 @@
         <v>-42.215,00</v>
       </c>
       <c r="L179" t="str">
-        <v>30.6.2019</v>
+        <v>30.06.2019</v>
       </c>
       <c r="P179" t="str">
         <v>30.12.2019</v>
@@ -4046,7 +4046,7 @@
         <v>-5.000,00</v>
       </c>
       <c r="L180" t="str">
-        <v>30.6.2019</v>
+        <v>30.06.2019</v>
       </c>
       <c r="P180" t="str">
         <v>30.12.2019</v>
@@ -4066,7 +4066,7 @@
         <v>-5.000,00</v>
       </c>
       <c r="L181" t="str">
-        <v>30.6.2019</v>
+        <v>30.06.2019</v>
       </c>
       <c r="P181" t="str">
         <v>30.12.2019</v>
@@ -4086,7 +4086,7 @@
         <v>-35.000,00</v>
       </c>
       <c r="L182" t="str">
-        <v>30.6.2019</v>
+        <v>30.06.2019</v>
       </c>
       <c r="P182" t="str">
         <v>30.12.2019</v>
@@ -4106,7 +4106,7 @@
         <v>-35.000,00</v>
       </c>
       <c r="L183" t="str">
-        <v>30.6.2019</v>
+        <v>30.06.2019</v>
       </c>
       <c r="P183" t="str">
         <v>30.12.2019</v>
@@ -4126,7 +4126,7 @@
         <v>-65,00</v>
       </c>
       <c r="L184" t="str">
-        <v>30.6.2019</v>
+        <v>30.06.2019</v>
       </c>
       <c r="P184" t="str">
         <v>30.12.2019</v>
@@ -4146,7 +4146,7 @@
         <v>-65,00</v>
       </c>
       <c r="L185" t="str">
-        <v>30.6.2019</v>
+        <v>30.06.2019</v>
       </c>
       <c r="P185" t="str">
         <v>30.12.2019</v>
@@ -4166,7 +4166,7 @@
         <v>-215,00</v>
       </c>
       <c r="L186" t="str">
-        <v>30.6.2019</v>
+        <v>30.06.2019</v>
       </c>
       <c r="P186" t="str">
         <v>30.12.2019</v>
@@ -4186,7 +4186,7 @@
         <v>-269,36</v>
       </c>
       <c r="L187" t="str">
-        <v>30.6.2019</v>
+        <v>30.06.2019</v>
       </c>
       <c r="P187" t="str">
         <v>30.12.2019</v>
@@ -4206,7 +4206,7 @@
         <v>-14.411,89</v>
       </c>
       <c r="L188" t="str">
-        <v>30.6.2019</v>
+        <v>30.06.2019</v>
       </c>
       <c r="P188" t="str">
         <v>30.12.2019</v>
@@ -4226,7 +4226,7 @@
         <v>-10.589,36</v>
       </c>
       <c r="L189" t="str">
-        <v>30.6.2019</v>
+        <v>30.06.2019</v>
       </c>
       <c r="P189" t="str">
         <v>30.12.2019</v>
@@ -4246,7 +4246,7 @@
         <v>-220,00</v>
       </c>
       <c r="L190" t="str">
-        <v>30.6.2019</v>
+        <v>30.06.2019</v>
       </c>
       <c r="P190" t="str">
         <v>30.12.2019</v>
@@ -4266,7 +4266,7 @@
         <v>-14.025,37</v>
       </c>
       <c r="L191" t="str">
-        <v>30.6.2019</v>
+        <v>30.06.2019</v>
       </c>
       <c r="P191" t="str">
         <v>30.12.2019</v>
@@ -4286,7 +4286,7 @@
         <v>-6.200,00</v>
       </c>
       <c r="L192" t="str">
-        <v>30.6.2019</v>
+        <v>30.06.2019</v>
       </c>
       <c r="P192" t="str">
         <v>30.12.2019</v>
@@ -4306,7 +4306,7 @@
         <v>-4.000,00</v>
       </c>
       <c r="L193" t="str">
-        <v>30.6.2019</v>
+        <v>30.06.2019</v>
       </c>
       <c r="P193" t="str">
         <v>30.12.2019</v>
@@ -4326,7 +4326,7 @@
         <v>-7.300,00</v>
       </c>
       <c r="L194" t="str">
-        <v>30.6.2019</v>
+        <v>30.06.2019</v>
       </c>
       <c r="P194" t="str">
         <v>30.12.2019</v>
@@ -4346,7 +4346,7 @@
         <v>-10.000,00</v>
       </c>
       <c r="L195" t="str">
-        <v>30.6.2019</v>
+        <v>30.06.2019</v>
       </c>
       <c r="P195" t="str">
         <v>30.12.2019</v>
@@ -4366,7 +4366,7 @@
         <v>-10.000,00</v>
       </c>
       <c r="L196" t="str">
-        <v>30.6.2019</v>
+        <v>30.06.2019</v>
       </c>
       <c r="P196" t="str">
         <v>30.12.2019</v>
@@ -4386,7 +4386,7 @@
         <v>220,00</v>
       </c>
       <c r="L197" t="str">
-        <v>30.6.2019</v>
+        <v>30.06.2019</v>
       </c>
       <c r="P197" t="str">
         <v>30.12.2019</v>
@@ -4406,7 +4406,7 @@
         <v>6.200,00</v>
       </c>
       <c r="L198" t="str">
-        <v>1.7.2019</v>
+        <v>01.07.2019</v>
       </c>
       <c r="P198" t="str">
         <v>30.12.2019</v>
@@ -4426,7 +4426,7 @@
         <v>4.000,00</v>
       </c>
       <c r="L199" t="str">
-        <v>1.7.2019</v>
+        <v>01.07.2019</v>
       </c>
       <c r="P199" t="str">
         <v>30.12.2019</v>
@@ -4446,7 +4446,7 @@
         <v>24.474,00</v>
       </c>
       <c r="L200" t="str">
-        <v>1.7.2019</v>
+        <v>01.07.2019</v>
       </c>
       <c r="P200" t="str">
         <v>30.12.2019</v>
@@ -4466,7 +4466,7 @@
         <v>42.215,00</v>
       </c>
       <c r="L201" t="str">
-        <v>1.7.2019</v>
+        <v>01.07.2019</v>
       </c>
       <c r="P201" t="str">
         <v>30.12.2019</v>
@@ -4486,7 +4486,7 @@
         <v>5.000,00</v>
       </c>
       <c r="L202" t="str">
-        <v>1.7.2019</v>
+        <v>01.07.2019</v>
       </c>
       <c r="P202" t="str">
         <v>30.12.2019</v>
@@ -4506,7 +4506,7 @@
         <v>5.000,00</v>
       </c>
       <c r="L203" t="str">
-        <v>1.7.2019</v>
+        <v>01.07.2019</v>
       </c>
       <c r="P203" t="str">
         <v>30.12.2019</v>
@@ -4526,7 +4526,7 @@
         <v>35.000,00</v>
       </c>
       <c r="L204" t="str">
-        <v>1.7.2019</v>
+        <v>01.07.2019</v>
       </c>
       <c r="P204" t="str">
         <v>30.12.2019</v>
@@ -4546,7 +4546,7 @@
         <v>35.000,00</v>
       </c>
       <c r="L205" t="str">
-        <v>1.7.2019</v>
+        <v>01.07.2019</v>
       </c>
       <c r="P205" t="str">
         <v>30.12.2019</v>
@@ -4566,7 +4566,7 @@
         <v>10.000,00</v>
       </c>
       <c r="L206" t="str">
-        <v>1.7.2019</v>
+        <v>01.07.2019</v>
       </c>
       <c r="P206" t="str">
         <v>30.12.2019</v>
@@ -4586,7 +4586,7 @@
         <v>215,00</v>
       </c>
       <c r="L207" t="str">
-        <v>1.7.2019</v>
+        <v>01.07.2019</v>
       </c>
       <c r="P207" t="str">
         <v>30.12.2019</v>
@@ -4606,7 +4606,7 @@
         <v>269,36</v>
       </c>
       <c r="L208" t="str">
-        <v>1.7.2019</v>
+        <v>01.07.2019</v>
       </c>
       <c r="P208" t="str">
         <v>30.12.2019</v>
@@ -4626,7 +4626,7 @@
         <v>14.411,89</v>
       </c>
       <c r="L209" t="str">
-        <v>1.7.2019</v>
+        <v>01.07.2019</v>
       </c>
       <c r="P209" t="str">
         <v>30.12.2019</v>
@@ -4646,7 +4646,7 @@
         <v>10.589,36</v>
       </c>
       <c r="L210" t="str">
-        <v>1.7.2019</v>
+        <v>01.07.2019</v>
       </c>
       <c r="P210" t="str">
         <v>30.12.2019</v>
@@ -4666,7 +4666,7 @@
         <v>14.025,37</v>
       </c>
       <c r="L211" t="str">
-        <v>1.7.2019</v>
+        <v>01.07.2019</v>
       </c>
       <c r="P211" t="str">
         <v>30.12.2019</v>
@@ -4686,7 +4686,7 @@
         <v>200,00</v>
       </c>
       <c r="L212" t="str">
-        <v>1.7.2019</v>
+        <v>01.07.2019</v>
       </c>
       <c r="P212" t="str">
         <v>30.12.2019</v>
@@ -4706,7 +4706,7 @@
         <v>7.300,00</v>
       </c>
       <c r="L213" t="str">
-        <v>1.7.2019</v>
+        <v>01.07.2019</v>
       </c>
       <c r="P213" t="str">
         <v>30.12.2019</v>
@@ -4726,7 +4726,7 @@
         <v>2.185,36</v>
       </c>
       <c r="L214" t="str">
-        <v>1.7.2019</v>
+        <v>01.07.2019</v>
       </c>
       <c r="P214" t="str">
         <v>30.12.2019</v>
@@ -4746,7 +4746,7 @@
         <v>7.366,59</v>
       </c>
       <c r="L215" t="str">
-        <v>1.7.2019</v>
+        <v>01.07.2019</v>
       </c>
       <c r="P215" t="str">
         <v>30.12.2019</v>
@@ -4766,7 +4766,7 @@
         <v>1.830,00</v>
       </c>
       <c r="L216" t="str">
-        <v>1.7.2019</v>
+        <v>01.07.2019</v>
       </c>
       <c r="P216" t="str">
         <v>30.12.2019</v>
@@ -4786,7 +4786,7 @@
         <v>65,00</v>
       </c>
       <c r="L217" t="str">
-        <v>1.7.2019</v>
+        <v>01.07.2019</v>
       </c>
       <c r="P217" t="str">
         <v>30.12.2019</v>
@@ -4806,7 +4806,7 @@
         <v>65,00</v>
       </c>
       <c r="L218" t="str">
-        <v>1.7.2019</v>
+        <v>01.07.2019</v>
       </c>
       <c r="P218" t="str">
         <v>30.12.2019</v>
@@ -4826,7 +4826,7 @@
         <v>150,00</v>
       </c>
       <c r="L219" t="str">
-        <v>1.7.2019</v>
+        <v>01.07.2019</v>
       </c>
       <c r="P219" t="str">
         <v>30.12.2019</v>
@@ -4846,7 +4846,7 @@
         <v>-4.400,00</v>
       </c>
       <c r="L220" t="str">
-        <v>31.7.2019</v>
+        <v>31.07.2019</v>
       </c>
       <c r="P220" t="str">
         <v>30.12.2019</v>
@@ -4866,7 +4866,7 @@
         <v>-20.626,00</v>
       </c>
       <c r="L221" t="str">
-        <v>31.7.2019</v>
+        <v>31.07.2019</v>
       </c>
       <c r="P221" t="str">
         <v>30.12.2019</v>
@@ -4886,7 +4886,7 @@
         <v>-3.348,00</v>
       </c>
       <c r="L222" t="str">
-        <v>31.7.2019</v>
+        <v>31.07.2019</v>
       </c>
       <c r="P222" t="str">
         <v>30.12.2019</v>
@@ -4906,7 +4906,7 @@
         <v>-37.135,00</v>
       </c>
       <c r="L223" t="str">
-        <v>31.7.2019</v>
+        <v>31.07.2019</v>
       </c>
       <c r="P223" t="str">
         <v>30.12.2019</v>
@@ -4926,7 +4926,7 @@
         <v>-16.700,00</v>
       </c>
       <c r="L224" t="str">
-        <v>31.7.2019</v>
+        <v>31.07.2019</v>
       </c>
       <c r="P224" t="str">
         <v>30.12.2019</v>
@@ -4946,7 +4946,7 @@
         <v>-16.700,00</v>
       </c>
       <c r="L225" t="str">
-        <v>31.7.2019</v>
+        <v>31.07.2019</v>
       </c>
       <c r="P225" t="str">
         <v>30.12.2019</v>
@@ -4966,7 +4966,7 @@
         <v>-1.369,00</v>
       </c>
       <c r="L226" t="str">
-        <v>31.7.2019</v>
+        <v>31.07.2019</v>
       </c>
       <c r="P226" t="str">
         <v>30.12.2019</v>
@@ -4986,7 +4986,7 @@
         <v>-1.390,00</v>
       </c>
       <c r="L227" t="str">
-        <v>31.7.2019</v>
+        <v>31.07.2019</v>
       </c>
       <c r="P227" t="str">
         <v>30.12.2019</v>
@@ -5006,7 +5006,7 @@
         <v>-683,00</v>
       </c>
       <c r="L228" t="str">
-        <v>31.7.2019</v>
+        <v>31.07.2019</v>
       </c>
       <c r="P228" t="str">
         <v>30.12.2019</v>
@@ -5026,7 +5026,7 @@
         <v>-683,00</v>
       </c>
       <c r="L229" t="str">
-        <v>31.7.2019</v>
+        <v>31.07.2019</v>
       </c>
       <c r="P229" t="str">
         <v>30.12.2019</v>
@@ -5046,7 +5046,7 @@
         <v>-9.315,00</v>
       </c>
       <c r="L230" t="str">
-        <v>31.7.2019</v>
+        <v>31.07.2019</v>
       </c>
       <c r="P230" t="str">
         <v>30.12.2019</v>
@@ -5066,7 +5066,7 @@
         <v>-1.850,00</v>
       </c>
       <c r="L231" t="str">
-        <v>31.7.2019</v>
+        <v>31.07.2019</v>
       </c>
       <c r="P231" t="str">
         <v>30.12.2019</v>
@@ -5086,7 +5086,7 @@
         <v>-3.400,00</v>
       </c>
       <c r="L232" t="str">
-        <v>31.7.2019</v>
+        <v>31.07.2019</v>
       </c>
       <c r="P232" t="str">
         <v>30.12.2019</v>
@@ -5106,7 +5106,7 @@
         <v>-300,00</v>
       </c>
       <c r="L233" t="str">
-        <v>31.7.2019</v>
+        <v>31.07.2019</v>
       </c>
       <c r="P233" t="str">
         <v>30.12.2019</v>
@@ -5126,7 +5126,7 @@
         <v>-8.000,00</v>
       </c>
       <c r="L234" t="str">
-        <v>31.7.2019</v>
+        <v>31.07.2019</v>
       </c>
       <c r="P234" t="str">
         <v>30.12.2019</v>
@@ -5146,7 +5146,7 @@
         <v>-105,00</v>
       </c>
       <c r="L235" t="str">
-        <v>31.7.2019</v>
+        <v>31.07.2019</v>
       </c>
       <c r="P235" t="str">
         <v>30.12.2019</v>
@@ -5166,7 +5166,7 @@
         <v>-7.145,00</v>
       </c>
       <c r="L236" t="str">
-        <v>31.7.2019</v>
+        <v>31.07.2019</v>
       </c>
       <c r="P236" t="str">
         <v>30.12.2019</v>
@@ -5186,7 +5186,7 @@
         <v>-200,00</v>
       </c>
       <c r="L237" t="str">
-        <v>31.7.2019</v>
+        <v>31.07.2019</v>
       </c>
       <c r="P237" t="str">
         <v>30.12.2019</v>
@@ -5206,7 +5206,7 @@
         <v>-1.500,00</v>
       </c>
       <c r="L238" t="str">
-        <v>31.7.2019</v>
+        <v>31.07.2019</v>
       </c>
       <c r="P238" t="str">
         <v>30.12.2019</v>
@@ -5226,7 +5226,7 @@
         <v>-215,00</v>
       </c>
       <c r="L239" t="str">
-        <v>31.7.2019</v>
+        <v>31.07.2019</v>
       </c>
       <c r="P239" t="str">
         <v>30.12.2019</v>
@@ -5246,7 +5246,7 @@
         <v>-82,35</v>
       </c>
       <c r="L240" t="str">
-        <v>31.7.2019</v>
+        <v>31.07.2019</v>
       </c>
       <c r="P240" t="str">
         <v>30.12.2019</v>
@@ -5266,7 +5266,7 @@
         <v>-82,35</v>
       </c>
       <c r="L241" t="str">
-        <v>31.7.2019</v>
+        <v>31.07.2019</v>
       </c>
       <c r="P241" t="str">
         <v>30.12.2019</v>
@@ -5286,7 +5286,7 @@
         <v>-26.114,00</v>
       </c>
       <c r="L242" t="str">
-        <v>31.7.2019</v>
+        <v>31.07.2019</v>
       </c>
       <c r="P242" t="str">
         <v>30.12.2019</v>
@@ -5303,7 +5303,7 @@
         <v>-81.017,08</v>
       </c>
       <c r="L243" t="str">
-        <v>31.7.2019</v>
+        <v>31.07.2019</v>
       </c>
       <c r="P243" t="str">
         <v>30.12.2019</v>
@@ -5320,7 +5320,7 @@
         <v>300,00</v>
       </c>
       <c r="L244" t="str">
-        <v>1.8.2019</v>
+        <v>01.08.2019</v>
       </c>
       <c r="P244" t="str">
         <v>30.12.2019</v>
@@ -5337,7 +5337,7 @@
         <v>3.400,00</v>
       </c>
       <c r="L245" t="str">
-        <v>1.8.2019</v>
+        <v>01.08.2019</v>
       </c>
       <c r="P245" t="str">
         <v>30.12.2019</v>
@@ -5354,7 +5354,7 @@
         <v>1.850,00</v>
       </c>
       <c r="L246" t="str">
-        <v>1.8.2019</v>
+        <v>01.08.2019</v>
       </c>
       <c r="P246" t="str">
         <v>30.12.2019</v>
@@ -5371,7 +5371,7 @@
         <v>9.315,00</v>
       </c>
       <c r="L247" t="str">
-        <v>1.8.2019</v>
+        <v>01.08.2019</v>
       </c>
       <c r="P247" t="str">
         <v>30.12.2019</v>
@@ -5388,7 +5388,7 @@
         <v>683,00</v>
       </c>
       <c r="L248" t="str">
-        <v>1.8.2019</v>
+        <v>01.08.2019</v>
       </c>
       <c r="P248" t="str">
         <v>30.12.2019</v>
@@ -5405,7 +5405,7 @@
         <v>683,00</v>
       </c>
       <c r="L249" t="str">
-        <v>1.8.2019</v>
+        <v>01.08.2019</v>
       </c>
       <c r="P249" t="str">
         <v>30.12.2019</v>
@@ -5422,7 +5422,7 @@
         <v>1.390,00</v>
       </c>
       <c r="L250" t="str">
-        <v>1.8.2019</v>
+        <v>01.08.2019</v>
       </c>
       <c r="P250" t="str">
         <v>30.12.2019</v>
@@ -5439,7 +5439,7 @@
         <v>1.369,00</v>
       </c>
       <c r="L251" t="str">
-        <v>1.8.2019</v>
+        <v>01.08.2019</v>
       </c>
       <c r="P251" t="str">
         <v>30.12.2019</v>
@@ -5456,7 +5456,7 @@
         <v>37.135,00</v>
       </c>
       <c r="L252" t="str">
-        <v>1.8.2019</v>
+        <v>01.08.2019</v>
       </c>
       <c r="P252" t="str">
         <v>30.12.2019</v>
@@ -5473,7 +5473,7 @@
         <v>3.348,00</v>
       </c>
       <c r="L253" t="str">
-        <v>1.8.2019</v>
+        <v>01.08.2019</v>
       </c>
       <c r="P253" t="str">
         <v>30.12.2019</v>
@@ -5490,7 +5490,7 @@
         <v>20.626,00</v>
       </c>
       <c r="L254" t="str">
-        <v>1.8.2019</v>
+        <v>01.08.2019</v>
       </c>
       <c r="P254" t="str">
         <v>30.12.2019</v>
@@ -5507,7 +5507,7 @@
         <v>26.114,00</v>
       </c>
       <c r="L255" t="str">
-        <v>1.8.2019</v>
+        <v>01.08.2019</v>
       </c>
       <c r="P255" t="str">
         <v>30.12.2019</v>
@@ -5524,7 +5524,7 @@
         <v>82,35</v>
       </c>
       <c r="L256" t="str">
-        <v>1.8.2019</v>
+        <v>01.08.2019</v>
       </c>
       <c r="P256" t="str">
         <v>30.12.2019</v>
@@ -5541,7 +5541,7 @@
         <v>82,35</v>
       </c>
       <c r="L257" t="str">
-        <v>1.8.2019</v>
+        <v>01.08.2019</v>
       </c>
       <c r="P257" t="str">
         <v>30.12.2019</v>
@@ -5558,7 +5558,7 @@
         <v>215,00</v>
       </c>
       <c r="L258" t="str">
-        <v>1.8.2019</v>
+        <v>01.08.2019</v>
       </c>
       <c r="P258" t="str">
         <v>30.12.2019</v>
@@ -5575,7 +5575,7 @@
         <v>1.500,00</v>
       </c>
       <c r="L259" t="str">
-        <v>1.8.2019</v>
+        <v>01.08.2019</v>
       </c>
       <c r="P259" t="str">
         <v>30.12.2019</v>
@@ -5592,7 +5592,7 @@
         <v>4.400,00</v>
       </c>
       <c r="L260" t="str">
-        <v>1.8.2019</v>
+        <v>01.08.2019</v>
       </c>
       <c r="P260" t="str">
         <v>30.12.2019</v>
@@ -5609,7 +5609,7 @@
         <v>10.000,00</v>
       </c>
       <c r="L261" t="str">
-        <v>1.8.2019</v>
+        <v>01.08.2019</v>
       </c>
       <c r="P261" t="str">
         <v>30.12.2019</v>
@@ -5626,7 +5626,7 @@
         <v>10.000,00</v>
       </c>
       <c r="L262" t="str">
-        <v>1.8.2019</v>
+        <v>01.08.2019</v>
       </c>
       <c r="P262" t="str">
         <v>30.12.2019</v>
@@ -5643,7 +5643,7 @@
         <v>120,00</v>
       </c>
       <c r="L263" t="str">
-        <v>1.8.2019</v>
+        <v>01.08.2019</v>
       </c>
       <c r="P263" t="str">
         <v>30.12.2019</v>
@@ -5660,7 +5660,7 @@
         <v>756,00</v>
       </c>
       <c r="L264" t="str">
-        <v>1.8.2019</v>
+        <v>01.08.2019</v>
       </c>
       <c r="P264" t="str">
         <v>30.12.2019</v>
@@ -5677,7 +5677,7 @@
         <v>6.000,00</v>
       </c>
       <c r="L265" t="str">
-        <v>1.8.2019</v>
+        <v>01.08.2019</v>
       </c>
       <c r="P265" t="str">
         <v>30.12.2019</v>
@@ -5694,7 +5694,7 @@
         <v>81.017,08</v>
       </c>
       <c r="L266" t="str">
-        <v>1.8.2019</v>
+        <v>01.08.2019</v>
       </c>
       <c r="P266" t="str">
         <v>30.12.2019</v>
@@ -5711,7 +5711,7 @@
         <v>7.145,00</v>
       </c>
       <c r="L267" t="str">
-        <v>1.8.2019</v>
+        <v>01.08.2019</v>
       </c>
       <c r="P267" t="str">
         <v>30.12.2019</v>
@@ -5728,7 +5728,7 @@
         <v>8.000,00</v>
       </c>
       <c r="L268" t="str">
-        <v>1.8.2019</v>
+        <v>01.08.2019</v>
       </c>
       <c r="P268" t="str">
         <v>30.12.2019</v>
@@ -5745,7 +5745,7 @@
         <v>200,00</v>
       </c>
       <c r="L269" t="str">
-        <v>1.8.2019</v>
+        <v>01.08.2019</v>
       </c>
       <c r="P269" t="str">
         <v>30.12.2019</v>
@@ -5762,7 +5762,7 @@
         <v>105,00</v>
       </c>
       <c r="L270" t="str">
-        <v>1.8.2019</v>
+        <v>01.08.2019</v>
       </c>
       <c r="P270" t="str">
         <v>30.12.2019</v>
@@ -5779,7 +5779,7 @@
         <v>16.700,00</v>
       </c>
       <c r="L271" t="str">
-        <v>1.8.2019</v>
+        <v>01.08.2019</v>
       </c>
       <c r="P271" t="str">
         <v>30.12.2019</v>
@@ -5796,7 +5796,7 @@
         <v>16.700,00</v>
       </c>
       <c r="L272" t="str">
-        <v>1.8.2019</v>
+        <v>01.08.2019</v>
       </c>
       <c r="P272" t="str">
         <v>30.12.2019</v>
@@ -5813,7 +5813,7 @@
         <v>-3.000,00</v>
       </c>
       <c r="L273" t="str">
-        <v>31.8.2019</v>
+        <v>31.08.2019</v>
       </c>
       <c r="P273" t="str">
         <v>30.12.2019</v>
@@ -5830,7 +5830,7 @@
         <v>-10.900,00</v>
       </c>
       <c r="L274" t="str">
-        <v>31.8.2019</v>
+        <v>31.08.2019</v>
       </c>
       <c r="P274" t="str">
         <v>30.12.2019</v>
@@ -5847,7 +5847,7 @@
         <v>-3.344,00</v>
       </c>
       <c r="L275" t="str">
-        <v>31.8.2019</v>
+        <v>31.08.2019</v>
       </c>
       <c r="P275" t="str">
         <v>30.12.2019</v>
@@ -5864,7 +5864,7 @@
         <v>-1.100,00</v>
       </c>
       <c r="L276" t="str">
-        <v>31.8.2019</v>
+        <v>31.08.2019</v>
       </c>
       <c r="P276" t="str">
         <v>30.12.2019</v>
@@ -5881,7 +5881,7 @@
         <v>-4.400,00</v>
       </c>
       <c r="L277" t="str">
-        <v>31.8.2019</v>
+        <v>31.08.2019</v>
       </c>
       <c r="P277" t="str">
         <v>30.12.2019</v>
@@ -5898,7 +5898,7 @@
         <v>-1.300,00</v>
       </c>
       <c r="L278" t="str">
-        <v>31.8.2019</v>
+        <v>31.08.2019</v>
       </c>
       <c r="P278" t="str">
         <v>30.12.2019</v>
@@ -5915,7 +5915,7 @@
         <v>-3.200,00</v>
       </c>
       <c r="L279" t="str">
-        <v>31.8.2019</v>
+        <v>31.08.2019</v>
       </c>
       <c r="P279" t="str">
         <v>30.12.2019</v>
@@ -5932,7 +5932,7 @@
         <v>-1.400,00</v>
       </c>
       <c r="L280" t="str">
-        <v>31.8.2019</v>
+        <v>31.08.2019</v>
       </c>
       <c r="P280" t="str">
         <v>30.12.2019</v>
@@ -5949,7 +5949,7 @@
         <v>-8.500,00</v>
       </c>
       <c r="L281" t="str">
-        <v>31.8.2019</v>
+        <v>31.08.2019</v>
       </c>
       <c r="P281" t="str">
         <v>30.12.2019</v>
@@ -5966,7 +5966,7 @@
         <v>-3.403,00</v>
       </c>
       <c r="L282" t="str">
-        <v>31.8.2019</v>
+        <v>31.08.2019</v>
       </c>
       <c r="P282" t="str">
         <v>30.12.2019</v>
@@ -5983,7 +5983,7 @@
         <v>-3.003,00</v>
       </c>
       <c r="L283" t="str">
-        <v>31.8.2019</v>
+        <v>31.08.2019</v>
       </c>
       <c r="P283" t="str">
         <v>30.12.2019</v>
@@ -6000,7 +6000,7 @@
         <v>-31.362,00</v>
       </c>
       <c r="L284" t="str">
-        <v>31.8.2019</v>
+        <v>31.08.2019</v>
       </c>
       <c r="P284" t="str">
         <v>30.12.2019</v>
@@ -6017,7 +6017,7 @@
         <v>-215,00</v>
       </c>
       <c r="L285" t="str">
-        <v>31.8.2019</v>
+        <v>31.08.2019</v>
       </c>
       <c r="P285" t="str">
         <v>30.12.2019</v>
@@ -6034,7 +6034,7 @@
         <v>-83,35</v>
       </c>
       <c r="L286" t="str">
-        <v>31.8.2019</v>
+        <v>31.08.2019</v>
       </c>
       <c r="P286" t="str">
         <v>30.12.2019</v>
@@ -6051,7 +6051,7 @@
         <v>-83,35</v>
       </c>
       <c r="L287" t="str">
-        <v>31.8.2019</v>
+        <v>31.08.2019</v>
       </c>
       <c r="P287" t="str">
         <v>30.12.2019</v>
@@ -6068,7 +6068,7 @@
         <v>-16.500,00</v>
       </c>
       <c r="L288" t="str">
-        <v>31.8.2019</v>
+        <v>31.08.2019</v>
       </c>
       <c r="P288" t="str">
         <v>30.12.2019</v>
@@ -6085,7 +6085,7 @@
         <v>-4.434,74</v>
       </c>
       <c r="L289" t="str">
-        <v>31.8.2019</v>
+        <v>31.08.2019</v>
       </c>
       <c r="P289" t="str">
         <v>30.12.2019</v>
@@ -6102,7 +6102,7 @@
         <v>-594,67</v>
       </c>
       <c r="L290" t="str">
-        <v>31.8.2019</v>
+        <v>31.08.2019</v>
       </c>
       <c r="P290" t="str">
         <v>30.12.2019</v>
@@ -6119,7 +6119,7 @@
         <v>-421,87</v>
       </c>
       <c r="L291" t="str">
-        <v>31.8.2019</v>
+        <v>31.08.2019</v>
       </c>
       <c r="P291" t="str">
         <v>30.12.2019</v>
@@ -6136,7 +6136,7 @@
         <v>-1.676,58</v>
       </c>
       <c r="L292" t="str">
-        <v>31.8.2019</v>
+        <v>31.08.2019</v>
       </c>
       <c r="P292" t="str">
         <v>30.12.2019</v>
@@ -6153,7 +6153,7 @@
         <v>-769,77</v>
       </c>
       <c r="L293" t="str">
-        <v>31.8.2019</v>
+        <v>31.08.2019</v>
       </c>
       <c r="P293" t="str">
         <v>30.12.2019</v>
@@ -6170,7 +6170,7 @@
         <v>-3.200,00</v>
       </c>
       <c r="L294" t="str">
-        <v>31.8.2019</v>
+        <v>31.08.2019</v>
       </c>
       <c r="P294" t="str">
         <v>30.12.2019</v>
@@ -6187,7 +6187,7 @@
         <v>-3.000,00</v>
       </c>
       <c r="L295" t="str">
-        <v>31.8.2019</v>
+        <v>31.08.2019</v>
       </c>
       <c r="P295" t="str">
         <v>30.12.2019</v>
@@ -6204,7 +6204,7 @@
         <v>-3.374,34</v>
       </c>
       <c r="L296" t="str">
-        <v>31.8.2019</v>
+        <v>31.08.2019</v>
       </c>
       <c r="P296" t="str">
         <v>30.12.2019</v>
@@ -6221,7 +6221,7 @@
         <v>3.374,34</v>
       </c>
       <c r="L297" t="str">
-        <v>1.9.2019</v>
+        <v>01.09.2019</v>
       </c>
       <c r="P297" t="str">
         <v>30.12.2019</v>
@@ -6238,7 +6238,7 @@
         <v>3.000,00</v>
       </c>
       <c r="L298" t="str">
-        <v>1.9.2019</v>
+        <v>01.09.2019</v>
       </c>
       <c r="P298" t="str">
         <v>30.12.2019</v>
@@ -6255,7 +6255,7 @@
         <v>10.900,00</v>
       </c>
       <c r="L299" t="str">
-        <v>1.9.2019</v>
+        <v>01.09.2019</v>
       </c>
       <c r="P299" t="str">
         <v>30.12.2019</v>
@@ -6272,7 +6272,7 @@
         <v>3.344,00</v>
       </c>
       <c r="L300" t="str">
-        <v>1.9.2019</v>
+        <v>01.09.2019</v>
       </c>
       <c r="P300" t="str">
         <v>30.12.2019</v>
@@ -6289,7 +6289,7 @@
         <v>1.100,00</v>
       </c>
       <c r="L301" t="str">
-        <v>1.9.2019</v>
+        <v>01.09.2019</v>
       </c>
       <c r="P301" t="str">
         <v>30.12.2019</v>
@@ -6306,7 +6306,7 @@
         <v>4.400,00</v>
       </c>
       <c r="L302" t="str">
-        <v>1.9.2019</v>
+        <v>01.09.2019</v>
       </c>
       <c r="P302" t="str">
         <v>30.12.2019</v>
@@ -6323,7 +6323,7 @@
         <v>1.300,00</v>
       </c>
       <c r="L303" t="str">
-        <v>1.9.2019</v>
+        <v>01.09.2019</v>
       </c>
       <c r="P303" t="str">
         <v>30.12.2019</v>
@@ -6340,7 +6340,7 @@
         <v>3.200,00</v>
       </c>
       <c r="L304" t="str">
-        <v>1.9.2019</v>
+        <v>01.09.2019</v>
       </c>
       <c r="P304" t="str">
         <v>30.12.2019</v>
@@ -6357,7 +6357,7 @@
         <v>1.400,00</v>
       </c>
       <c r="L305" t="str">
-        <v>1.9.2019</v>
+        <v>01.09.2019</v>
       </c>
       <c r="P305" t="str">
         <v>30.12.2019</v>
@@ -6374,7 +6374,7 @@
         <v>8.500,00</v>
       </c>
       <c r="L306" t="str">
-        <v>1.9.2019</v>
+        <v>01.09.2019</v>
       </c>
       <c r="P306" t="str">
         <v>30.12.2019</v>
@@ -6391,7 +6391,7 @@
         <v>3.403,00</v>
       </c>
       <c r="L307" t="str">
-        <v>1.9.2019</v>
+        <v>01.09.2019</v>
       </c>
       <c r="P307" t="str">
         <v>30.12.2019</v>
@@ -6408,7 +6408,7 @@
         <v>3.003,00</v>
       </c>
       <c r="L308" t="str">
-        <v>1.9.2019</v>
+        <v>01.09.2019</v>
       </c>
       <c r="P308" t="str">
         <v>30.12.2019</v>
@@ -6425,7 +6425,7 @@
         <v>31.362,00</v>
       </c>
       <c r="L309" t="str">
-        <v>1.9.2019</v>
+        <v>01.09.2019</v>
       </c>
       <c r="P309" t="str">
         <v>30.12.2019</v>
@@ -6442,7 +6442,7 @@
         <v>215,00</v>
       </c>
       <c r="L310" t="str">
-        <v>1.9.2019</v>
+        <v>01.09.2019</v>
       </c>
       <c r="P310" t="str">
         <v>30.12.2019</v>
@@ -6459,7 +6459,7 @@
         <v>83,35</v>
       </c>
       <c r="L311" t="str">
-        <v>1.9.2019</v>
+        <v>01.09.2019</v>
       </c>
       <c r="P311" t="str">
         <v>30.12.2019</v>
@@ -6476,7 +6476,7 @@
         <v>83,35</v>
       </c>
       <c r="L312" t="str">
-        <v>1.9.2019</v>
+        <v>01.09.2019</v>
       </c>
       <c r="P312" t="str">
         <v>30.12.2019</v>
@@ -6493,7 +6493,7 @@
         <v>16.500,00</v>
       </c>
       <c r="L313" t="str">
-        <v>1.9.2019</v>
+        <v>01.09.2019</v>
       </c>
       <c r="P313" t="str">
         <v>30.12.2019</v>
@@ -6510,7 +6510,7 @@
         <v>4.434,74</v>
       </c>
       <c r="L314" t="str">
-        <v>1.9.2019</v>
+        <v>01.09.2019</v>
       </c>
       <c r="P314" t="str">
         <v>30.12.2019</v>
@@ -6527,7 +6527,7 @@
         <v>594,67</v>
       </c>
       <c r="L315" t="str">
-        <v>1.9.2019</v>
+        <v>01.09.2019</v>
       </c>
       <c r="P315" t="str">
         <v>30.12.2019</v>
@@ -6544,7 +6544,7 @@
         <v>421,87</v>
       </c>
       <c r="L316" t="str">
-        <v>1.9.2019</v>
+        <v>01.09.2019</v>
       </c>
       <c r="P316" t="str">
         <v>30.12.2019</v>
@@ -6561,7 +6561,7 @@
         <v>1.676,58</v>
       </c>
       <c r="L317" t="str">
-        <v>1.9.2019</v>
+        <v>01.09.2019</v>
       </c>
       <c r="P317" t="str">
         <v>30.12.2019</v>
@@ -6578,7 +6578,7 @@
         <v>769,77</v>
       </c>
       <c r="L318" t="str">
-        <v>1.9.2019</v>
+        <v>01.09.2019</v>
       </c>
       <c r="P318" t="str">
         <v>30.12.2019</v>
@@ -6595,7 +6595,7 @@
         <v>3.200,00</v>
       </c>
       <c r="L319" t="str">
-        <v>1.9.2019</v>
+        <v>01.09.2019</v>
       </c>
       <c r="P319" t="str">
         <v>30.12.2019</v>
@@ -6612,7 +6612,7 @@
         <v>3.000,00</v>
       </c>
       <c r="L320" t="str">
-        <v>1.9.2019</v>
+        <v>01.09.2019</v>
       </c>
       <c r="P320" t="str">
         <v>30.12.2019</v>
@@ -6629,7 +6629,7 @@
         <v>-6.300,00</v>
       </c>
       <c r="L321" t="str">
-        <v>30.9.2019</v>
+        <v>30.09.2019</v>
       </c>
       <c r="P321" t="str">
         <v>30.12.2019</v>
@@ -6646,7 +6646,7 @@
         <v>-3.344,00</v>
       </c>
       <c r="L322" t="str">
-        <v>30.9.2019</v>
+        <v>30.09.2019</v>
       </c>
       <c r="P322" t="str">
         <v>30.12.2019</v>
@@ -6663,7 +6663,7 @@
         <v>-4.200,00</v>
       </c>
       <c r="L323" t="str">
-        <v>30.9.2019</v>
+        <v>30.09.2019</v>
       </c>
       <c r="P323" t="str">
         <v>30.12.2019</v>
@@ -6680,7 +6680,7 @@
         <v>-3.000,00</v>
       </c>
       <c r="L324" t="str">
-        <v>30.9.2019</v>
+        <v>30.09.2019</v>
       </c>
       <c r="P324" t="str">
         <v>30.12.2019</v>
@@ -6697,7 +6697,7 @@
         <v>-22.400,00</v>
       </c>
       <c r="L325" t="str">
-        <v>30.9.2019</v>
+        <v>30.09.2019</v>
       </c>
       <c r="P325" t="str">
         <v>30.12.2019</v>
@@ -6714,7 +6714,7 @@
         <v>-120.710,00</v>
       </c>
       <c r="L326" t="str">
-        <v>30.9.2019</v>
+        <v>30.09.2019</v>
       </c>
       <c r="P326" t="str">
         <v>30.12.2019</v>
@@ -6731,7 +6731,7 @@
         <v>-97.024,74</v>
       </c>
       <c r="L327" t="str">
-        <v>30.9.2019</v>
+        <v>30.09.2019</v>
       </c>
       <c r="P327" t="str">
         <v>30.12.2019</v>
@@ -6748,7 +6748,7 @@
         <v>-14.000,00</v>
       </c>
       <c r="L328" t="str">
-        <v>30.9.2019</v>
+        <v>30.09.2019</v>
       </c>
       <c r="P328" t="str">
         <v>30.12.2019</v>
@@ -6765,7 +6765,7 @@
         <v>-1.600,00</v>
       </c>
       <c r="L329" t="str">
-        <v>30.9.2019</v>
+        <v>30.09.2019</v>
       </c>
       <c r="P329" t="str">
         <v>30.12.2019</v>
@@ -6782,7 +6782,7 @@
         <v>-600,00</v>
       </c>
       <c r="L330" t="str">
-        <v>30.9.2019</v>
+        <v>30.09.2019</v>
       </c>
       <c r="P330" t="str">
         <v>30.12.2019</v>
@@ -6799,7 +6799,7 @@
         <v>-8.000,00</v>
       </c>
       <c r="L331" t="str">
-        <v>30.9.2019</v>
+        <v>30.09.2019</v>
       </c>
       <c r="P331" t="str">
         <v>30.12.2019</v>
@@ -6816,7 +6816,7 @@
         <v>-19.823,00</v>
       </c>
       <c r="L332" t="str">
-        <v>30.9.2019</v>
+        <v>30.09.2019</v>
       </c>
       <c r="P332" t="str">
         <v>30.12.2019</v>
